--- a/Civilworks cost/Work Schedule/Resources_backup.xlsx
+++ b/Civilworks cost/Work Schedule/Resources_backup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -5025,9 +5025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5201,7 +5199,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5778,8 +5776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5918,8 +5916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
